--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEO\Desktop\OCR\P4_Bousquet_Leo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEO\Desktop\OCR\P4_Bousquet_Leo\LeoBousquet_4_16042021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57D1675-D643-44F7-9B12-2D4D04B812C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966C43AE-568A-4D9E-BB61-F227C373F336}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>Catégorie</t>
   </si>
@@ -52,6 +52,90 @@
   </si>
   <si>
     <t>(SEO ou accessiblité ?)</t>
+  </si>
+  <si>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t>texte blanc sur blanc</t>
+  </si>
+  <si>
+    <t>va à l'encontre du bot google</t>
+  </si>
+  <si>
+    <t>ne pas le faire</t>
+  </si>
+  <si>
+    <t>supprimer le texte</t>
+  </si>
+  <si>
+    <t>liste de lien</t>
+  </si>
+  <si>
+    <t>mauvaise manière de créer des liens partenaires</t>
+  </si>
+  <si>
+    <t>mettre des liens pertinent</t>
+  </si>
+  <si>
+    <t>keywords non pertinent</t>
+  </si>
+  <si>
+    <t>liste de keyword sans rapport avec le site</t>
+  </si>
+  <si>
+    <t>mettre des keywords pertinent</t>
+  </si>
+  <si>
+    <t>structure code HTML</t>
+  </si>
+  <si>
+    <t>présence d'éléments inutiles</t>
+  </si>
+  <si>
+    <t>avoir un code propre</t>
+  </si>
+  <si>
+    <t>suppression des éléments inutiles</t>
+  </si>
+  <si>
+    <t>des milliers de ligne de code inutiles</t>
+  </si>
+  <si>
+    <t>impact sur la vitesse de chargement du site</t>
+  </si>
+  <si>
+    <t>pas de description</t>
+  </si>
+  <si>
+    <t>écrire une description</t>
+  </si>
+  <si>
+    <t>supprimer le code inutile</t>
+  </si>
+  <si>
+    <t>pas de description dans head</t>
+  </si>
+  <si>
+    <t>SEO / Accessibilité</t>
+  </si>
+  <si>
+    <t>alt des images fausses</t>
+  </si>
+  <si>
+    <t>la description ne correspond pas à la photo</t>
+  </si>
+  <si>
+    <t>écrire une description adéquate</t>
+  </si>
+  <si>
+    <t>aucun moyen de suivi du trafic</t>
+  </si>
+  <si>
+    <t>installer des outils de suivi</t>
+  </si>
+  <si>
+    <t>impossibilité de suivre l'évolution du trafic du site</t>
   </si>
 </sst>
 </file>
@@ -86,7 +170,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -123,14 +207,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,22 +448,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="7" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -402,51 +503,152 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="4"/>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="4"/>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="4"/>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="4"/>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="4"/>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="4"/>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="4"/>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="4"/>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="4"/>
-    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1434,6 +1636,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEO\Desktop\OCR\P4_Bousquet_Leo\LeoBousquet_4_16042021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966C43AE-568A-4D9E-BB61-F227C373F336}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E3D99F-69BB-4BCE-9732-61F619D06C8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Catégorie</t>
   </si>
@@ -136,6 +136,27 @@
   </si>
   <si>
     <t>impossibilité de suivre l'évolution du trafic du site</t>
+  </si>
+  <si>
+    <t>image trop lourdes</t>
+  </si>
+  <si>
+    <t>utilisation d'un format non adapté</t>
+  </si>
+  <si>
+    <t>utiliser le format adapter</t>
+  </si>
+  <si>
+    <t>changer les formats aux formats adaptés</t>
+  </si>
+  <si>
+    <t>fichier non minifier</t>
+  </si>
+  <si>
+    <t>fichier plus lourd qu'ils ne le devraient</t>
+  </si>
+  <si>
+    <t>minifier les fichiers une fois terminés</t>
   </si>
 </sst>
 </file>
@@ -449,7 +470,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -457,8 +478,8 @@
     <col min="1" max="1" width="21.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="39.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" style="7" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
   </cols>
@@ -644,8 +665,34 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEO\Desktop\OCR\P4_Bousquet_Leo\LeoBousquet_4_16042021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E3D99F-69BB-4BCE-9732-61F619D06C8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27A2390-3F60-49A3-92FE-155BE566184F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Catégorie</t>
   </si>
@@ -157,6 +157,21 @@
   </si>
   <si>
     <t>minifier les fichiers une fois terminés</t>
+  </si>
+  <si>
+    <t>Accessibilité</t>
+  </si>
+  <si>
+    <t>mauvais ratio de couleur</t>
+  </si>
+  <si>
+    <t>difficulté de visibilité</t>
+  </si>
+  <si>
+    <t>adopter les bons ratio</t>
+  </si>
+  <si>
+    <t>corriger les ratios de couleurs</t>
   </si>
 </sst>
 </file>
@@ -469,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -666,6 +681,9 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
@@ -680,6 +698,9 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
@@ -693,7 +714,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
